--- a/all stats/Ligue_1_Stats.xlsx
+++ b/all stats/Ligue_1_Stats.xlsx
@@ -41782,7 +41782,6 @@
           <t>Nathan Mbala</t>
         </is>
       </c>
-      <c r="C316" t="inlineStr"/>
       <c r="D316" t="inlineStr">
         <is>
           <t>FW</t>
